--- a/feasible_plan_consolidated.xlsx
+++ b/feasible_plan_consolidated.xlsx
@@ -2116,2053 +2116,2053 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>29/08/2024 00:01:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 00:09:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 00:31:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 00:53:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 05:07:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 05:29:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 05:37:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 05:59:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 06:04:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 06:26:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 06:07:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 06:31:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 06:53:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 06:34:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 06:56:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 06:46:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:08:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 06:52:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 06:59:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:06:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:09:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:11:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:19:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:40:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:41:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:21:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:42:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:26:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:48:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:29:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:51:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:34:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:55:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:36:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:58:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:57:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:39:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:01:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:46:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:08:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:49:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:54:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:56:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:18:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:59:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:04:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:25:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:06:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:27:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:28:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:09:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:31:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:16:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:38:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:19:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:40:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:41:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:21:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:42:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:24:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:45:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:26:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:48:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:29:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:51:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:34:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:55:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:36:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:57:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:58:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:39:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:01:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:46:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:08:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:49:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:11:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:10:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:12:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:54:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:15:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:56:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:18:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:59:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:21:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:04:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:25:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:06:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:27:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:28:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:09:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:31:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:16:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:38:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:19:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:41:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:40:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:42:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:24:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:45:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:26:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:48:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:29:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:51:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:34:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:55:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:36:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:58:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:57:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:39:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:46:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:08:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:49:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:10:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:11:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:12:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:54:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:15:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:56:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:18:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:59:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:21:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:04:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:25:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:06:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:28:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:27:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:09:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:31:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:16:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:38:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:19:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:40:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:41:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:42:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:24:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:45:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:26:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:48:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:29:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:34:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:55:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:36:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:57:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:39:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:01:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:46:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:08:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:49:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:10:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:11:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:51:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:12:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:54:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:15:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:56:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:18:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:59:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:21:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:04:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:25:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:06:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:27:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:28:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:09:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:31:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:16:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:38:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:19:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:40:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:41:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:42:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:24:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:45:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:26:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:48:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:29:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:51:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:34:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:55:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:36:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:58:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:57:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:39:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:01:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:46:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:08:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:49:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:11:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:10:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:12:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:54:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:56:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:18:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:59:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:04:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:25:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:06:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:27:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:28:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:09:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:31:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:16:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:38:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:19:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:40:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:41:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:21:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:42:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:24:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:45:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:26:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:48:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:29:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:34:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:55:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:36:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:58:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:39:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:01:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:46:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:08:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:49:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:10:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:11:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:51:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:12:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:54:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:15:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:56:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:18:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:57:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:59:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:21:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:04:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:25:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:06:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:27:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:28:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:09:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:31:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:16:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:38:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:19:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:40:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:41:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:42:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:24:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:45:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:26:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:48:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:29:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:51:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:34:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:55:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:36:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:58:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:39:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:01:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:46:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:08:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:49:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:11:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:10:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:12:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:54:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:15:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:56:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:18:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:57:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:59:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:21:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:04:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:25:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:06:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:28:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:27:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:09:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:31:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:16:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:38:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:19:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:41:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:40:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:42:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:24:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:45:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:26:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:48:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:29:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:51:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:34:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:55:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:36:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:58:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:57:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:39:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:01:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:46:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:08:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:49:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:11:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:10:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:12:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:54:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:15:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:56:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:18:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:59:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:21:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:04:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:25:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:06:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:27:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:28:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:09:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:31:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:16:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:38:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:19:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:40:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:41:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:42:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:24:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:45:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:26:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:48:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:29:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:51:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:34:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:55:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:36:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:58:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:57:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:39:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:01:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:46:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:08:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:49:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:10:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:11:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:12:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:54:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:15:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:56:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:18:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:59:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:21:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:04:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:25:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:06:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:28:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:27:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:09:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:31:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:16:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:38:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:19:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:41:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:40:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:42:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:24:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:45:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:26:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:48:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:29:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:51:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:34:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:55:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:36:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:58:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:57:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:39:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:01:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:46:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:08:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:49:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:10:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:11:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:12:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:54:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:15:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:56:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:18:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:59:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:21:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:04:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:25:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:06:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:28:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:27:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:09:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:31:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:16:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:38:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:19:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:40:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:41:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:42:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:24:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:45:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:26:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:48:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:29:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:34:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:55:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:36:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:58:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:57:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:39:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:01:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:46:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:08:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:49:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:11:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:10:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:51:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:12:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:54:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:15:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:56:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:18:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:59:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:21:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:04:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:25:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:06:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:28:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:07:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:14:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:36:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:16:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:38:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:19:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:40:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:22:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:43:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:24:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:45:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:26:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:48:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:27:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:29:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:51:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:34:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:55:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:37:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:58:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:41:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:03:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:44:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:06:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:49:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:10:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:52:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:13:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:54:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:15:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:56:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:18:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:57:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:59:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:21:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:04:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:25:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:07:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:28:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:11:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:33:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:14:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:36:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:19:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:40:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:22:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:43:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:26:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:48:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:27:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:29:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:51:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:34:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:55:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:37:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:58:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:41:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:03:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:44:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:06:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:49:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:10:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:56:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:18:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:04:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:25:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:07:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:29:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:11:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:33:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:22:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:44:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:35:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:57:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:37:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:59:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:46:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 21:07:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 21:05:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 21:27:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 21:29:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 21:35:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 21:57:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 21:37:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 21:59:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 22:05:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 22:27:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 22:07:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 22:29:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 22:35:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 22:57:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 22:37:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 22:59:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 23:05:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 23:27:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 23:07:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 23:29:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 23:35:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 23:57:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 23:37:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 23:59:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 00:23:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 00:57:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 05:33:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 06:19:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 06:29:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:13:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:16:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:12:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:18:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:27:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:31:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 07:33:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:00:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:15:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:17:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:05:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:11:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:10:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:12:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:47:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:35:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 08:44:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:02:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:17:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:05:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:14:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:35:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:47:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:01:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:44:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:02:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 09:52:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:17:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:30:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:22:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:47:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:35:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:00:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:02:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:52:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:17:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 10:58:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:05:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:14:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:32:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:44:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:05:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:15:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:14:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:32:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:47:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:35:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:44:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:02:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:05:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:14:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:22:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:47:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:32:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:35:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:00:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:02:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:52:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:05:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:30:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:22:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:44:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:05:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:52:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:17:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:14:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:32:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:35:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:22:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:47:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:00:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 15:52:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:17:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:05:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:30:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:32:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:35:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:22:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:47:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:44:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:52:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:17:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:05:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:14:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:32:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:44:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:02:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:05:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:17:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:47:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:08:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:02:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:23:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:35:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:38:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:00:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:47:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:52:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:08:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:59:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:02:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:23:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:26:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:30:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:49:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:48:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 21:01:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 21:03:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 21:11:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 21:47:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 21:33:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 22:17:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 22:03:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 22:47:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 22:33:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 23:17:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 23:03:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 23:47:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 23:33:00</t>
-  </si>
-  <si>
-    <t>30/08/2024 00:01:00</t>
-  </si>
-  <si>
-    <t>30/08/2024 00:03:00</t>
-  </si>
-  <si>
-    <t>29/08/2024 11:03:15</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:45:01</t>
-  </si>
-  <si>
-    <t>29/08/2024 22:24:12</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:44:25</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:46:21</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:22:07</t>
-  </si>
-  <si>
-    <t>29/08/2024 12:57:16</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:55:21</t>
-  </si>
-  <si>
-    <t>30/08/2024 01:10:03</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:50:36</t>
-  </si>
-  <si>
-    <t>29/08/2024 13:39:58</t>
-  </si>
-  <si>
-    <t>29/08/2024 19:33:49</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:28:29</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:08:54</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:40:46</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:19:15</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:58:26</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:23:28</t>
-  </si>
-  <si>
-    <t>29/08/2024 14:38:51</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:30:49</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:04:30</t>
-  </si>
-  <si>
-    <t>29/08/2024 16:05:25</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:21:10</t>
-  </si>
-  <si>
-    <t>29/08/2024 17:56:49</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:24:41</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:33:19</t>
-  </si>
-  <si>
-    <t>29/08/2024 18:29:36</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:32:20</t>
-  </si>
-  <si>
-    <t>29/08/2024 20:51:44</t>
+    <t>29/08/2024  00:01:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  00:09:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  00:31:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  00:53:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  05:07:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  05:29:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  05:37:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  05:59:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  06:04:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  06:26:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  06:07:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  06:31:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  06:53:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  06:34:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  06:56:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  06:46:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:08:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  06:52:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  06:59:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:06:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:09:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:11:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:19:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:40:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:41:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:21:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:42:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:26:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:48:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:29:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:51:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:34:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:55:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:36:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:58:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:57:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:39:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:01:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:46:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:08:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:49:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:54:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:56:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:18:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:59:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:04:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:25:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:06:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:27:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:28:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:09:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:31:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:16:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:38:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:19:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:40:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:41:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:21:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:42:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:24:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:45:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:26:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:48:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:29:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:51:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:34:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:55:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:36:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:57:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:58:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:39:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:01:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:46:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:08:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:49:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:11:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:10:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:12:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:54:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:15:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:56:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:18:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:59:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:21:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:04:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:25:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:06:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:27:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:28:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:09:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:31:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:16:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:38:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:19:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:41:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:40:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:42:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:24:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:45:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:26:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:48:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:29:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:51:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:34:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:55:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:36:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:58:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:57:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:39:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:46:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:08:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:49:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:10:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:11:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:12:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:54:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:15:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:56:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:18:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:59:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:21:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:04:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:25:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:06:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:28:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:27:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:09:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:31:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:16:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:38:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:19:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:40:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:41:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:42:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:24:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:45:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:26:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:48:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:29:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:34:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:55:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:36:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:57:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:39:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:01:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:46:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:08:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:49:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:10:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:11:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:51:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:12:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:54:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:15:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:56:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:18:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:59:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:21:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:04:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:25:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:06:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:27:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:28:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:09:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:31:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:16:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:38:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:19:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:40:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:41:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:42:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:24:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:45:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:26:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:48:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:29:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:51:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:34:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:55:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:36:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:58:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:57:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:39:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:01:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:46:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:08:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:49:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:11:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:10:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:12:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:54:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:56:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:18:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:59:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:04:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:25:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:06:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:27:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:28:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:09:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:31:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:16:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:38:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:19:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:40:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:41:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:21:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:42:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:24:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:45:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:26:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:48:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:29:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:34:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:55:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:36:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:58:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:39:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:01:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:46:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:08:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:49:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:10:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:11:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:51:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:12:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:54:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:15:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:56:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:18:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:57:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:59:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:21:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:04:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:25:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:06:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:27:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:28:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:09:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:31:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:16:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:38:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:19:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:40:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:41:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:42:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:24:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:45:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:26:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:48:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:29:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:51:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:34:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:55:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:36:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:58:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:39:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:01:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:46:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:08:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:49:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:11:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:10:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:12:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:54:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:15:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:56:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:18:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:57:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:59:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:21:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:04:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:25:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:06:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:28:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:27:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:09:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:31:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:16:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:38:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:19:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:41:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:40:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:42:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:24:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:45:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:26:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:48:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:29:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:51:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:34:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:55:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:36:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:58:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:57:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:39:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:01:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:46:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:08:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:49:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:11:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:10:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:12:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:54:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:15:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:56:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:18:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:59:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:21:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:04:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:25:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:06:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:27:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:28:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:09:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:31:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:16:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:38:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:19:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:40:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:41:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:42:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:24:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:45:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:26:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:48:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:29:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:51:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:34:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:55:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:36:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:58:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:57:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:39:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:01:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:46:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:08:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:49:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:10:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:11:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:12:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:54:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:15:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:56:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:18:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:59:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:21:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:04:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:25:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:06:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:28:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:27:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:09:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:31:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:16:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:38:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:19:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:41:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:40:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:42:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:24:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:45:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:26:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:48:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:29:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:51:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:34:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:55:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:36:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:58:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:57:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:39:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:01:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:46:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:08:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:49:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:10:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:11:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:12:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:54:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:15:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:56:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:18:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:59:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:21:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:04:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:25:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:06:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:28:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:27:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:09:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:31:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:16:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:38:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:19:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:40:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:41:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:42:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:24:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:45:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:26:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:48:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:29:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:34:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:55:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:36:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:58:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:57:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:39:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:01:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:46:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:08:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:49:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:11:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:10:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:51:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:12:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:54:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:15:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:56:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:18:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:59:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:21:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:04:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:25:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:06:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:28:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:07:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:14:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:36:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:16:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:38:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:19:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:40:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:22:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:43:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:24:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:45:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:26:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:48:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:27:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:29:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:51:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:34:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:55:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:37:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:58:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:41:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:03:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:44:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:06:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:49:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:10:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:52:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:13:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:54:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:15:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:56:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:18:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:57:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:59:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:21:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:04:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:25:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:07:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:28:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:11:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:33:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:14:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:36:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:19:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:40:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:22:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:43:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:26:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:48:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:27:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:29:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:51:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:34:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:55:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:37:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:58:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:41:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:03:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:44:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:06:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:49:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:10:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:56:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:18:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:04:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:25:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:07:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:29:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:11:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:33:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:22:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:44:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:35:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:57:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:37:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:59:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:46:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  21:07:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  21:05:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  21:27:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  21:29:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  21:35:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  21:57:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  21:37:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  21:59:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  22:05:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  22:27:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  22:07:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  22:29:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  22:35:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  22:57:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  22:37:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  22:59:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  23:05:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  23:27:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  23:07:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  23:29:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  23:35:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  23:57:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  23:37:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  23:59:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  00:23:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  00:57:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  05:33:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  06:19:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  06:29:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:13:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:16:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:12:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:18:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:27:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:31:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  07:33:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:00:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:15:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:17:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:05:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:11:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:10:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:12:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:47:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:35:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  08:44:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:02:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:17:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:05:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:14:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:35:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:47:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:01:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:44:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:02:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  09:52:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:17:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:30:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:22:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:47:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:35:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:00:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:02:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:52:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:17:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  10:58:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:05:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:14:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:32:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:44:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:05:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:15:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:14:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:32:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:47:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:35:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:44:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:02:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:05:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:14:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:22:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:47:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:32:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:35:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:00:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:02:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:52:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:05:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:30:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:22:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:44:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:05:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:52:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:17:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:14:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:32:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:35:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:22:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:47:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:00:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  15:52:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:17:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:05:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:30:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:32:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:35:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:22:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:47:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:44:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:52:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:17:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:05:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:14:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:32:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:44:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:02:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:05:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:17:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:47:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:08:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:02:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:23:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:35:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:38:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:00:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:47:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:52:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:08:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:59:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:02:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:23:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:26:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:30:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:49:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:48:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  21:01:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  21:03:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  21:11:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  21:47:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  21:33:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  22:17:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  22:03:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  22:47:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  22:33:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  23:17:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  23:03:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  23:47:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  23:33:00</t>
+  </si>
+  <si>
+    <t>30/08/2024  00:01:00</t>
+  </si>
+  <si>
+    <t>30/08/2024  00:03:00</t>
+  </si>
+  <si>
+    <t>29/08/2024  11:03:15</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:45:01</t>
+  </si>
+  <si>
+    <t>29/08/2024  22:24:12</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:44:25</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:46:21</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:22:07</t>
+  </si>
+  <si>
+    <t>29/08/2024  12:57:16</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:55:21</t>
+  </si>
+  <si>
+    <t>30/08/2024  01:10:03</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:50:36</t>
+  </si>
+  <si>
+    <t>29/08/2024  13:39:58</t>
+  </si>
+  <si>
+    <t>29/08/2024  19:33:49</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:28:29</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:08:54</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:40:46</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:19:15</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:58:26</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:23:28</t>
+  </si>
+  <si>
+    <t>29/08/2024  14:38:51</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:30:49</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:04:30</t>
+  </si>
+  <si>
+    <t>29/08/2024  16:05:25</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:21:10</t>
+  </si>
+  <si>
+    <t>29/08/2024  17:56:49</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:24:41</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:33:19</t>
+  </si>
+  <si>
+    <t>29/08/2024  18:29:36</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:32:20</t>
+  </si>
+  <si>
+    <t>29/08/2024  20:51:44</t>
   </si>
 </sst>
 </file>
